--- a/artfynd/Gárddiejávrrie artfynd.xlsx
+++ b/artfynd/Gárddiejávrrie artfynd.xlsx
@@ -413,14 +413,3725 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Taxonsorteringsordning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Valideringsstatus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rödlistade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TaxonId</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Artnamn</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt namn</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Auktor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Antal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Enhet</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Ålder-Stadium</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kön</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Aktivitet</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Metod</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Huvudlokal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Lokalnamn</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Ost</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Noggrannhet</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Län</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Kommun</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Provins</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Socken</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Externid</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Startdatum</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Starttid</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Slutdatum</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Sluttid</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Publik kommentar</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Ej återfunnen</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Osäker artbestämning</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Bestämningsmetod</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Ospontan</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Biotop</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Biotop-beskrivning</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Substratnamn</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt Substratnamn</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Art som substrat beskrivning</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Antal substrat</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Substrat-beskrivning</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Offentlig samling</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Privat samling</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Samlings-nummer</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Artbestämd av</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Bestämningsår</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Bekräftad av</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Bekräftelseår</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Rapportör</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Observatörer</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Projektnamn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>118505223</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>684545</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7254192</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>118505400</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90504</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>684363</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7254023</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>118505444</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>684364</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7254264</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111249081</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>684345</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7254082</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>118505328</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90500</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>684462</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7254224</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111249107</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>684213</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7253464</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111249086</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>683628</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7253526</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111249095</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>684274</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7254291</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>118505150</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90500</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>684330</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7254136</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111249109</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78129</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>353</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cladonia parasitica</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>684224</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7253462</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111249082</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>684316</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7253454</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>118505183</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>684484</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7254130</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111249106</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>683213</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7253948</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111249092</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>684359</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7253913</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111249096</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>684368</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7254279</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>118505120</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90788</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>658</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>684330</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7254136</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111249087</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>683574</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7253576</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111249093</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>684375</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7254167</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111249090</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>684391</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7253730</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111249084</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>684135</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7253530</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111249099</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>683213</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7253947</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>118505243</v>
+      </c>
+      <c r="B23" t="n">
+        <v>82263</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>684545</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7254192</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>118505381</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90504</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>684346</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7254059</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111249094</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>684184</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7254354</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>118505311</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>684463</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7254222</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111249078</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>684455</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7254329</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111249108</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>684381</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7253832</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111249089</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>683226</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7253914</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>118504834</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90504</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>684320</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7254137</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111249079</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Gárdiejávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>684549</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7254546</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>118505275</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90500</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Storabborrtjärnen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>684550</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7254189</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>